--- a/load/Launcher/launcher_set.xlsx
+++ b/load/Launcher/launcher_set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Super Launcher\load\Launcher Mode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SuperLauncher\load\Launcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FFBD12-FC3F-4FFC-8D5D-0A7FC379FDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88EFE21-44CB-459B-92ED-735961C64BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="16653" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14952" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Communication" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="309">
   <si>
     <t>Name</t>
   </si>
@@ -1174,6 +1174,10 @@
   </si>
   <si>
     <t>E:\Softwares\AOMEI Partition Assistant\PartAssist.exe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exe Path</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1691,15 +1695,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.05859375" customWidth="1"/>
-    <col min="2" max="2" width="24.05859375" customWidth="1"/>
+    <col min="1" max="1" width="18.046875" customWidth="1"/>
+    <col min="2" max="2" width="24.046875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="92.46875" customWidth="1"/>
+    <col min="4" max="4" width="92.44921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +1717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1727,7 +1731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1741,7 +1745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1773,15 +1777,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.05859375" customWidth="1"/>
-    <col min="2" max="2" width="24.05859375" customWidth="1"/>
+    <col min="1" max="1" width="18.046875" customWidth="1"/>
+    <col min="2" max="2" width="24.046875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="92.46875" customWidth="1"/>
+    <col min="4" max="4" width="92.44921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1809,7 +1813,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1841,15 +1845,15 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.05859375" customWidth="1"/>
-    <col min="2" max="2" width="24.05859375" customWidth="1"/>
+    <col min="1" max="1" width="18.046875" customWidth="1"/>
+    <col min="2" max="2" width="24.046875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="92.46875" customWidth="1"/>
+    <col min="4" max="4" width="92.44921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1877,7 +1881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1891,7 +1895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1902,7 +1906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1913,7 +1917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1927,7 +1931,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1941,7 +1945,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1955,7 +1959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1969,7 +1973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1983,7 +1987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -1997,7 +2001,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -2011,7 +2015,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>277</v>
       </c>
@@ -2043,15 +2047,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.05859375" customWidth="1"/>
-    <col min="2" max="2" width="24.05859375" customWidth="1"/>
+    <col min="1" max="1" width="18.046875" customWidth="1"/>
+    <col min="2" max="2" width="24.046875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="92.46875" customWidth="1"/>
+    <col min="4" max="4" width="92.44921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +2069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -2079,7 +2083,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -2093,7 +2097,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -2107,7 +2111,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -2121,7 +2125,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>272</v>
       </c>
@@ -2153,15 +2157,15 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.05859375" customWidth="1"/>
-    <col min="2" max="2" width="24.05859375" customWidth="1"/>
+    <col min="1" max="1" width="18.046875" customWidth="1"/>
+    <col min="2" max="2" width="24.046875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="92.46875" customWidth="1"/>
+    <col min="4" max="4" width="92.44921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2175,7 +2179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -2189,7 +2193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>267</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>168</v>
       </c>
@@ -2217,7 +2221,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>281</v>
       </c>
@@ -2231,7 +2235,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>171</v>
       </c>
@@ -2245,7 +2249,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>175</v>
       </c>
@@ -2259,7 +2263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>177</v>
       </c>
@@ -2273,7 +2277,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>183</v>
       </c>
@@ -2287,7 +2291,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>185</v>
       </c>
@@ -2301,7 +2305,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>190</v>
       </c>
@@ -2315,7 +2319,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>285</v>
       </c>
@@ -2350,15 +2354,15 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.05859375" customWidth="1"/>
-    <col min="2" max="2" width="24.05859375" customWidth="1"/>
+    <col min="1" max="1" width="18.046875" customWidth="1"/>
+    <col min="2" max="2" width="24.046875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="92.46875" customWidth="1"/>
+    <col min="4" max="4" width="92.44921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2372,7 +2376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -2386,7 +2390,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -2400,7 +2404,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2414,7 +2418,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2428,7 +2432,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -2442,7 +2446,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2456,7 +2460,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -2470,7 +2474,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -2484,7 +2488,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -2498,7 +2502,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -2512,7 +2516,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>162</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -2540,7 +2544,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -2554,7 +2558,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -2568,7 +2572,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -2582,7 +2586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>288</v>
       </c>
@@ -2617,18 +2621,18 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.05859375" customWidth="1"/>
-    <col min="2" max="2" width="24.05859375" customWidth="1"/>
+    <col min="1" max="1" width="18.046875" customWidth="1"/>
+    <col min="2" max="2" width="24.046875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="92.46875" customWidth="1"/>
+    <col min="4" max="4" width="92.44921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2639,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -2656,7 +2660,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -2670,7 +2674,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -2684,7 +2688,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -2698,7 +2702,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -2712,7 +2716,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -2726,7 +2730,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>147</v>
       </c>
@@ -2740,7 +2744,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -2754,7 +2758,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>268</v>
       </c>
@@ -2768,7 +2772,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -2803,15 +2807,15 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.05859375" customWidth="1"/>
-    <col min="2" max="2" width="24.05859375" customWidth="1"/>
+    <col min="1" max="1" width="18.046875" customWidth="1"/>
+    <col min="2" max="2" width="24.046875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="92.46875" customWidth="1"/>
+    <col min="4" max="4" width="92.44921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2825,7 +2829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -2839,7 +2843,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>209</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -2867,7 +2871,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -2881,7 +2885,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -2895,7 +2899,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -2909,7 +2913,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>214</v>
       </c>
@@ -2923,7 +2927,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>221</v>
       </c>
@@ -2937,7 +2941,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>225</v>
       </c>
@@ -2951,7 +2955,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>248</v>
       </c>
@@ -2965,7 +2969,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>230</v>
       </c>
@@ -2979,7 +2983,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>234</v>
       </c>
@@ -2993,7 +2997,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>237</v>
       </c>
@@ -3007,7 +3011,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>238</v>
       </c>
@@ -3021,7 +3025,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>249</v>
       </c>
@@ -3035,7 +3039,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>252</v>
       </c>
@@ -3049,7 +3053,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>256</v>
       </c>
@@ -3063,7 +3067,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>261</v>
       </c>
@@ -3077,7 +3081,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>264</v>
       </c>
@@ -3091,7 +3095,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>291</v>
       </c>
@@ -3105,7 +3109,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B29" t="s">
         <v>303</v>
       </c>
@@ -3137,15 +3141,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.05859375" customWidth="1"/>
-    <col min="2" max="2" width="24.05859375" customWidth="1"/>
+    <col min="1" max="1" width="18.046875" customWidth="1"/>
+    <col min="2" max="2" width="24.046875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="92.46875" customWidth="1"/>
+    <col min="4" max="4" width="92.44921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3159,7 +3163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -3205,15 +3209,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.05859375" customWidth="1"/>
-    <col min="2" max="2" width="24.05859375" customWidth="1"/>
+    <col min="1" max="1" width="18.046875" customWidth="1"/>
+    <col min="2" max="2" width="24.046875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="92.46875" customWidth="1"/>
+    <col min="4" max="4" width="92.44921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/load/Launcher/launcher_set.xlsx
+++ b/load/Launcher/launcher_set.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Launcher_New\load\Launcher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SuperLauncher\load\Launcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3FAE4-ADB5-4CA3-891B-259B99F149A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096B7F2B-7556-46FD-8D8F-8F8B0CA24F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Communication" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="289">
   <si>
     <t>Name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>微信a222aaa</t>
   </si>
   <si>
-    <t>腾讯公司的社交软件</t>
-  </si>
-  <si>
     <t>E:\Softwares\WeChat\WeChat.exe</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>腾讯QQ</t>
   </si>
   <si>
-    <t>腾讯公司针对年轻人的社交软件</t>
-  </si>
-  <si>
     <t>E:\Softwares\QQ\QQ.exe</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>腾讯会议</t>
   </si>
   <si>
-    <t>腾讯公司会议软件</t>
-  </si>
-  <si>
     <t>E:\Softwares\Tencent Meeting\WeMeet\wemeetapp.exe</t>
   </si>
   <si>
@@ -573,9 +564,6 @@
     <t>暴力删除</t>
   </si>
   <si>
-    <t>彻底删除文件</t>
-  </si>
-  <si>
     <t>E:\Super Launcher\load\Others\暴力删除.exe</t>
   </si>
   <si>
@@ -585,9 +573,6 @@
     <t>fastcopy</t>
   </si>
   <si>
-    <t>自定义复制文件</t>
-  </si>
-  <si>
     <t>E:\Softwares\FastCopy\FastCopy.exe</t>
   </si>
   <si>
@@ -597,9 +582,6 @@
     <t>win压</t>
   </si>
   <si>
-    <t>压缩软件</t>
-  </si>
-  <si>
     <t>E:\Softwares\Winrar\WinRAR.exe</t>
   </si>
   <si>
@@ -609,9 +591,6 @@
     <t>分区助手</t>
   </si>
   <si>
-    <t>傲梅磁盘管理工具</t>
-  </si>
-  <si>
     <t>E:\Softwares\AOMEI Partition Assistant\PartAssist.exe</t>
   </si>
   <si>
@@ -621,9 +600,6 @@
     <t>爱思助手</t>
   </si>
   <si>
-    <t>苹果设备管理软件</t>
-  </si>
-  <si>
     <t>E:\Softwares\i4assitant\i4Tools8\x64\i4Tools.exe</t>
   </si>
   <si>
@@ -631,9 +607,6 @@
   </si>
   <si>
     <t>dll修复工具</t>
-  </si>
-  <si>
-    <t>用于修复directX的dll文件缺失</t>
   </si>
   <si>
     <t xml:space="preserve">E:\Softwares\DirectX_Repair(Online)\DirectX Repair.exe </t>
@@ -992,7 +965,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1292,15 +1265,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1308,17 +1281,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1331,42 +1301,33 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1383,9 +1344,9 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,187 +1364,187 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1600,9 +1561,9 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1620,86 +1581,86 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>63</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>65</v>
       </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>68</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>69</v>
       </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>71</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
         <v>72</v>
       </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1716,9 +1677,9 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1736,173 +1697,173 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>81</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>83</v>
       </c>
-      <c r="E3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>85</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>86</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>87</v>
       </c>
-      <c r="E4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>88</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>90</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>91</v>
       </c>
-      <c r="E5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>92</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>94</v>
       </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
         <v>95</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>96</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>98</v>
       </c>
-      <c r="E7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
         <v>99</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>100</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
         <v>101</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
         <v>102</v>
       </c>
-      <c r="E8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>103</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>104</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>105</v>
       </c>
-      <c r="E9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>106</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>107</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>108</v>
       </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>109</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
         <v>110</v>
       </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" t="s">
-        <v>113</v>
-      </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1919,9 +1880,9 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1939,258 +1900,258 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>114</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>115</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>117</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>118</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>119</v>
       </c>
-      <c r="E3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>120</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>121</v>
       </c>
-      <c r="E4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>122</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>123</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>124</v>
       </c>
-      <c r="E5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>125</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>126</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>127</v>
       </c>
-      <c r="E6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
         <v>128</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>129</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>130</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>131</v>
       </c>
-      <c r="E7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
         <v>132</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>133</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
         <v>134</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
         <v>135</v>
       </c>
-      <c r="E8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
         <v>136</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>137</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>138</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>139</v>
       </c>
-      <c r="E9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>140</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>141</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>142</v>
       </c>
-      <c r="E10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>143</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>144</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
         <v>145</v>
       </c>
-      <c r="E11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
         <v>146</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>147</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
         <v>148</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
         <v>149</v>
       </c>
-      <c r="E12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
         <v>150</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>151</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
         <v>152</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>153</v>
       </c>
-      <c r="E13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
         <v>154</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>155</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
         <v>156</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
         <v>157</v>
       </c>
-      <c r="E14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="E15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>158</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>159</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>160</v>
       </c>
-      <c r="E15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>161</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>162</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
         <v>163</v>
       </c>
-      <c r="E16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" t="s">
-        <v>166</v>
-      </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2201,15 +2162,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2217,181 +2178,148 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>167</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>168</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>170</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>171</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>172</v>
       </c>
-      <c r="E3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>173</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>174</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>175</v>
       </c>
-      <c r="E4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>176</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>177</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>178</v>
       </c>
-      <c r="E5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>179</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>180</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>181</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>182</v>
       </c>
-      <c r="E6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
         <v>183</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>184</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>185</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B9" t="s">
         <v>186</v>
       </c>
-      <c r="E7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C9" t="s">
         <v>187</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>188</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B10" t="s">
         <v>189</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C10" t="s">
         <v>190</v>
       </c>
-      <c r="E8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>191</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>192</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>193</v>
       </c>
-      <c r="D9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" t="s">
-        <v>201</v>
-      </c>
       <c r="D11" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2408,9 +2336,9 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2428,352 +2356,352 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>203</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>204</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>205</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>206</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>208</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>209</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>210</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s">
         <v>211</v>
       </c>
-      <c r="E3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>212</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>213</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C7" t="s">
         <v>214</v>
       </c>
-      <c r="E4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D7" t="s">
         <v>215</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>216</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B8" t="s">
         <v>217</v>
       </c>
-      <c r="E5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C8" t="s">
         <v>218</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D8" t="s">
         <v>219</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>220</v>
       </c>
-      <c r="E6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
         <v>221</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C9" t="s">
         <v>222</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D9" t="s">
         <v>223</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>224</v>
       </c>
-      <c r="E7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B10" t="s">
         <v>225</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C10" t="s">
         <v>226</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>227</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B11" t="s">
         <v>228</v>
       </c>
-      <c r="E8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C11" t="s">
         <v>229</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D11" t="s">
         <v>230</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>231</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B12" t="s">
         <v>232</v>
       </c>
-      <c r="E9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C12" t="s">
         <v>233</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D12" t="s">
         <v>234</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>235</v>
       </c>
-      <c r="E10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B13" t="s">
         <v>236</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C13" t="s">
         <v>237</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D13" t="s">
         <v>238</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>239</v>
       </c>
-      <c r="E11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B14" t="s">
         <v>240</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C14" t="s">
         <v>241</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D14" t="s">
         <v>242</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>243</v>
       </c>
-      <c r="E12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B15" t="s">
         <v>244</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C15" t="s">
         <v>245</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D15" t="s">
         <v>246</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>247</v>
       </c>
-      <c r="E13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
         <v>248</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D16" t="s">
         <v>249</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>250</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B17" t="s">
         <v>251</v>
       </c>
-      <c r="E14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C17" t="s">
         <v>252</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D17" t="s">
         <v>253</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>254</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B18" t="s">
         <v>255</v>
       </c>
-      <c r="E15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C18" t="s">
         <v>256</v>
       </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D18" t="s">
         <v>257</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>258</v>
       </c>
-      <c r="E16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
         <v>259</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D19" t="s">
         <v>260</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>261</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B20" t="s">
         <v>262</v>
       </c>
-      <c r="E17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C20" t="s">
         <v>263</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D20" t="s">
         <v>264</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>265</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B21" t="s">
         <v>266</v>
       </c>
-      <c r="E18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C21" t="s">
         <v>267</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D21" t="s">
         <v>268</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
         <v>269</v>
       </c>
-      <c r="E19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C22" t="s">
         <v>270</v>
       </c>
-      <c r="B20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C20" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" t="s">
-        <v>273</v>
-      </c>
-      <c r="E20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>274</v>
-      </c>
-      <c r="B21" t="s">
-        <v>275</v>
-      </c>
-      <c r="C21" t="s">
-        <v>276</v>
-      </c>
-      <c r="D21" t="s">
-        <v>277</v>
-      </c>
-      <c r="E21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>278</v>
-      </c>
-      <c r="C22" t="s">
-        <v>279</v>
-      </c>
       <c r="E22" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2790,9 +2718,9 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2810,38 +2738,38 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2858,9 +2786,9 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2878,38 +2806,38 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/load/Launcher/launcher_set.xlsx
+++ b/load/Launcher/launcher_set.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,16 @@
           <t>EXE Path</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>IconPath</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Group</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,6 +484,16 @@
           <t>E:\Softwares\WeChat\WeChat.exe</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>E:\SuperLauncher\load\Launcher\app_icons\Communication^--$WeChat.png</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Communication</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -491,6 +511,16 @@
           <t>E:\Softwares\QQ\QQ.exe</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>E:\SuperLauncher\load\Launcher\app_icons\Communication^--$QQ.png</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Communication</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -506,6 +536,16 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>E:\Softwares\Tencent Meeting\WeMeet\wemeetapp.exe</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>E:\SuperLauncher\load\Launcher\app_icons\Communication^--$Tencent Meeting.png</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Communication</t>
         </is>
       </c>
     </row>
@@ -1985,7 +2025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,16 +2049,6 @@
           <t>EXE Path</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>IconPath</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Group</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2036,16 +2066,6 @@
           <t>E:\Super Launcher\load\Others\Recycle Bin.lnk</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>./load/Launcher/shortcut_setting/default/default_button_icon.svg</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Shortcut</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2063,16 +2083,6 @@
           <t>E:\Super Launcher\load\Others\PC.lnk</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>./load/Launcher/shortcut_setting/default/default_button_icon.svg</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Shortcut</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2085,17 +2095,7 @@
           <t>a</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Shortcut</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
